--- a/ConfigData/Xlsx/Drop.xlsx
+++ b/ConfigData/Xlsx/Drop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用户目录\我的文档\FEWin\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -76,22 +76,174 @@
     <t>随机Lv5装备</t>
   </si>
   <si>
-    <t>随机素材概率</t>
-  </si>
-  <si>
-    <t>35;27;22;15;1;0;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>35;25;20;15;3;1;1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>30;25;20;15;5;3;2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20;20;25;19;8;5;3</t>
+    <t>素材袋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级素材袋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特级素材袋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>极品素材袋</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材袋(无)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材袋(水)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材袋(风)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材袋(火)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材袋(地)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材袋(光)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材袋(暗)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源袋(恶魔)</t>
+  </si>
+  <si>
+    <t>资源袋(机械)</t>
+  </si>
+  <si>
+    <t>资源袋(精灵)</t>
+  </si>
+  <si>
+    <t>资源袋(昆虫)</t>
+  </si>
+  <si>
+    <t>资源袋(龙)</t>
+  </si>
+  <si>
+    <t>资源袋(鸟)</t>
+  </si>
+  <si>
+    <t>资源袋(爬行)</t>
+  </si>
+  <si>
+    <t>资源袋(人类)</t>
+  </si>
+  <si>
+    <t>资源袋(兽人)</t>
+  </si>
+  <si>
+    <t>资源袋(亡灵)</t>
+  </si>
+  <si>
+    <t>资源袋(野兽)</t>
+  </si>
+  <si>
+    <t>资源袋(鱼)</t>
+  </si>
+  <si>
+    <t>资源袋(元素)</t>
+  </si>
+  <si>
+    <t>资源袋(植物)</t>
+  </si>
+  <si>
+    <t>资源袋(地精)</t>
+  </si>
+  <si>
+    <t>资源袋(石像)</t>
+  </si>
+  <si>
+    <t>scwu1;scwu2;scwu3;scwu4</t>
+  </si>
+  <si>
+    <t>scshui1;scshui2;scshui3;scshui4</t>
+  </si>
+  <si>
+    <t>scfeng1;scfeng2;scfeng3;scfeng4</t>
+  </si>
+  <si>
+    <t>schuo1;schuo2;schuo3;schuo4</t>
+  </si>
+  <si>
+    <t>scdi1;scdi2;scdi3;scdi4</t>
+  </si>
+  <si>
+    <t>scguang1;scguang2;scguang3;scguang4</t>
+  </si>
+  <si>
+    <t>scan1;scan2;scan3;scan4</t>
+  </si>
+  <si>
+    <t>scemo1;scemo2;scemo3;scemo4</t>
+  </si>
+  <si>
+    <t>scjixie1;scjixie2;scjixie3;scjixie4</t>
+  </si>
+  <si>
+    <t>scjingling1;scjingling2;scjingling3;scjingling4</t>
+  </si>
+  <si>
+    <t>sckunchong1;sckunchong2;sckunchong3;sckunchong4</t>
+  </si>
+  <si>
+    <t>sclong1;sclong2;sclong3;sclong4</t>
+  </si>
+  <si>
+    <t>scniao1;scniao2;scniao3;scniao4</t>
+  </si>
+  <si>
+    <t>scpaxing1;scpaxing2;scpaxing3;scpaxing4</t>
+  </si>
+  <si>
+    <t>screnlei1;screnlei2;screnlei3;screnlei4</t>
+  </si>
+  <si>
+    <t>scshouren1;scshouren2;scshouren3;scshouren4</t>
+  </si>
+  <si>
+    <t>scwangling1;scwangling2;scwangling3;scwangling4</t>
+  </si>
+  <si>
+    <t>scyeshou1;scyeshou2;scyeshou3;scyeshou4</t>
+  </si>
+  <si>
+    <t>scyu1;scyu2;scyu3;scyu4</t>
+  </si>
+  <si>
+    <t>scyuansu1;scyuansu2;scyuansu3;scyuansu4</t>
+  </si>
+  <si>
+    <t>sczhiwu1;sczhiwu2;sczhiwu3;sczhiwu4</t>
+  </si>
+  <si>
+    <t>scdijing1;scdijing2;scdijing3;scdijing4</t>
+  </si>
+  <si>
+    <t>sctuteng1;sctuteng2;sctuteng3;sctuteng4</t>
+  </si>
+  <si>
+    <t>52;28;15;5</t>
+  </si>
+  <si>
+    <t>64;23;10;3</t>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -99,181 +251,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>素材袋</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级素材袋</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>特级素材袋</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>极品素材袋</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(无)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(水)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(风)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(火)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(地)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(光)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(暗)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源袋(恶魔)</t>
-  </si>
-  <si>
-    <t>资源袋(机械)</t>
-  </si>
-  <si>
-    <t>资源袋(精灵)</t>
-  </si>
-  <si>
-    <t>资源袋(昆虫)</t>
-  </si>
-  <si>
-    <t>资源袋(龙)</t>
-  </si>
-  <si>
-    <t>资源袋(鸟)</t>
-  </si>
-  <si>
-    <t>资源袋(爬行)</t>
-  </si>
-  <si>
-    <t>资源袋(人类)</t>
-  </si>
-  <si>
-    <t>资源袋(兽人)</t>
-  </si>
-  <si>
-    <t>资源袋(亡灵)</t>
-  </si>
-  <si>
-    <t>资源袋(野兽)</t>
-  </si>
-  <si>
-    <t>资源袋(鱼)</t>
-  </si>
-  <si>
-    <t>资源袋(元素)</t>
-  </si>
-  <si>
-    <t>资源袋(植物)</t>
-  </si>
-  <si>
-    <t>资源袋(地精)</t>
-  </si>
-  <si>
-    <t>资源袋(石像)</t>
-  </si>
-  <si>
-    <t>scwu1;scwu2;scwu3;scwu4</t>
-  </si>
-  <si>
-    <t>scshui1;scshui2;scshui3;scshui4</t>
-  </si>
-  <si>
-    <t>scfeng1;scfeng2;scfeng3;scfeng4</t>
-  </si>
-  <si>
-    <t>schuo1;schuo2;schuo3;schuo4</t>
-  </si>
-  <si>
-    <t>scdi1;scdi2;scdi3;scdi4</t>
-  </si>
-  <si>
-    <t>scguang1;scguang2;scguang3;scguang4</t>
-  </si>
-  <si>
-    <t>scan1;scan2;scan3;scan4</t>
-  </si>
-  <si>
-    <t>scemo1;scemo2;scemo3;scemo4</t>
-  </si>
-  <si>
-    <t>scjixie1;scjixie2;scjixie3;scjixie4</t>
-  </si>
-  <si>
-    <t>scjingling1;scjingling2;scjingling3;scjingling4</t>
-  </si>
-  <si>
-    <t>sckunchong1;sckunchong2;sckunchong3;sckunchong4</t>
-  </si>
-  <si>
-    <t>sclong1;sclong2;sclong3;sclong4</t>
-  </si>
-  <si>
-    <t>scniao1;scniao2;scniao3;scniao4</t>
-  </si>
-  <si>
-    <t>scpaxing1;scpaxing2;scpaxing3;scpaxing4</t>
-  </si>
-  <si>
-    <t>screnlei1;screnlei2;screnlei3;screnlei4</t>
-  </si>
-  <si>
-    <t>scshouren1;scshouren2;scshouren3;scshouren4</t>
-  </si>
-  <si>
-    <t>scwangling1;scwangling2;scwangling3;scwangling4</t>
-  </si>
-  <si>
-    <t>scyeshou1;scyeshou2;scyeshou3;scyeshou4</t>
-  </si>
-  <si>
-    <t>scyu1;scyu2;scyu3;scyu4</t>
-  </si>
-  <si>
-    <t>scyuansu1;scyuansu2;scyuansu3;scyuansu4</t>
-  </si>
-  <si>
-    <t>sczhiwu1;sczhiwu2;sczhiwu3;sczhiwu4</t>
-  </si>
-  <si>
-    <t>scdijing1;scdijing2;scdijing3;scdijing4</t>
-  </si>
-  <si>
-    <t>sctuteng1;sctuteng2;sctuteng3;sctuteng4</t>
-  </si>
-  <si>
-    <t>52;28;15;5</t>
-  </si>
-  <si>
-    <t>64;23;10;3</t>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemRate</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -472,22 +449,6 @@
   </si>
   <si>
     <t>shuiyinbugeiche2;hongbaoshibugeiche2;liuhuangbugeiche2;shuijingbugeiche2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialRate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否掉落随机装备</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropEquip</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1170,7 +1131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,9 +1161,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1559,19 +1517,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:H42" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A3:H42"/>
-  <sortState ref="A4:H42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A3:F42" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A3:F42"/>
+  <sortState ref="A4:F42">
     <sortCondition ref="A3:A42"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="6">
     <tableColumn id="1" name="Id" dataDxfId="5"/>
     <tableColumn id="2" name="Name" dataDxfId="4"/>
     <tableColumn id="7" name="Ename" dataDxfId="3"/>
     <tableColumn id="12" name="Items" dataDxfId="2"/>
     <tableColumn id="6" name="ItemRate" dataDxfId="1"/>
-    <tableColumn id="4" name="MaterialRate"/>
-    <tableColumn id="3" name="DropEquip"/>
     <tableColumn id="13" name="Count" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1899,13 +1855,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1915,12 +1871,10 @@
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="48.75" customWidth="1"/>
     <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="6.375" customWidth="1"/>
-    <col min="8" max="8" width="4.25" customWidth="1"/>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1928,25 +1882,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1957,88 +1905,71 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>23000001</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>138</v>
+      <c r="B4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
+        <v>129</v>
+      </c>
+      <c r="F4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>23000101</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="G5" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="C5" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>23000102</v>
       </c>
@@ -2046,16 +1977,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="3">
+        <v>103</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>23000103</v>
       </c>
@@ -2063,16 +1991,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="H7" s="3">
+        <v>104</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>23000104</v>
       </c>
@@ -2080,16 +2005,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="H8" s="3">
+        <v>105</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>23000105</v>
       </c>
@@ -2097,662 +2019,645 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="10">
+        <v>106</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>23000201</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3">
+        <v>96</v>
+      </c>
+      <c r="F10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>23000202</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3">
+        <v>97</v>
+      </c>
+      <c r="F11" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>23000203</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="3">
+        <v>98</v>
+      </c>
+      <c r="F12" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>23000204</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3">
+        <v>99</v>
+      </c>
+      <c r="F13" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>23000301</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="3">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>23000302</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="3">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>23000303</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="3">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>23000304</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="3">
+        <v>65</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>23000305</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="3">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>23000306</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="3">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>23000307</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="3">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>23000401</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="3">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>23000402</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="3">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>23000403</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="3">
+        <v>66</v>
+      </c>
+      <c r="F23" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23000404</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="3">
+        <v>66</v>
+      </c>
+      <c r="F24" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23000405</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="3">
+        <v>66</v>
+      </c>
+      <c r="F25" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23000406</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="3">
+        <v>66</v>
+      </c>
+      <c r="F26" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23000407</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="3">
+        <v>66</v>
+      </c>
+      <c r="F27" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>23000408</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="3">
+        <v>66</v>
+      </c>
+      <c r="F28" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>23000409</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="3">
+        <v>66</v>
+      </c>
+      <c r="F29" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>23000410</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="3">
+        <v>66</v>
+      </c>
+      <c r="F30" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>23000411</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="3">
+        <v>66</v>
+      </c>
+      <c r="F31" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>23000412</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="F32" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>23000413</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="3">
+        <v>66</v>
+      </c>
+      <c r="F33" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>23000414</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="3">
+        <v>66</v>
+      </c>
+      <c r="F34" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>23000415</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="3">
+        <v>66</v>
+      </c>
+      <c r="F35" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>23000416</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="3">
+        <v>66</v>
+      </c>
+      <c r="F36" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>23000501</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37" s="3">
+        <v>120</v>
+      </c>
+      <c r="F37" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>23000502</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="3">
+        <v>124</v>
+      </c>
+      <c r="F38" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>23000503</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="3">
+        <v>123</v>
+      </c>
+      <c r="F39" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>23000504</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="3">
+        <v>112</v>
+      </c>
+      <c r="F40" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>23000505</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="3">
+        <v>118</v>
+      </c>
+      <c r="F41" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>23010001</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>138</v>
+      <c r="B42" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="15">
+        <v>129</v>
+      </c>
+      <c r="F42" s="14">
         <v>3</v>
       </c>
     </row>
